--- a/biology/Zoologie/Grandilithus_xiaoxiicus/Grandilithus_xiaoxiicus.xlsx
+++ b/biology/Zoologie/Grandilithus_xiaoxiicus/Grandilithus_xiaoxiicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Grandilithus xiaoxiicus est une espèce d'araignées aranéomorphes de la famille des Phrurolithidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grandilithus xiaoxiicus est une espèce d'araignées aranéomorphes de la famille des Phrurolithidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Jiangxi en Chine[1],[2]. Elle se rencontre vers Jinggangshan.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Jiangxi en Chine,. Elle se rencontre vers Jinggangshan.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 4,79 mm[3].
-Le mâle décrit par Liu, Li, Zhang, Ying, Meng, Fei, Li, Xiao et Xu en 2022 mesure 3,75 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 4,79 mm.
+Le mâle décrit par Liu, Li, Zhang, Ying, Meng, Fei, Li, Xiao et Xu en 2022 mesure 3,75 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Otacilia xiaoxiica par Liu en 2020. Elle est placée dans le genre Grandilithus par Liu, Li, Zhang, Ying, Meng, Fei, Li, Xiao et Xu en 2022[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Otacilia xiaoxiica par Liu en 2020. Elle est placée dans le genre Grandilithus par Liu, Li, Zhang, Ying, Meng, Fei, Li, Xiao et Xu en 2022.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, Xiaoxi.
 </t>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Liu, Luo, Ying, Xiao, Xu &amp; Xiao, 2020 : « A survey of Phrurolithidae spiders from Jinggang Mountain National Nature Reserve, Jiangxi Province, China. » ZooKeys, no 946, p. 1-37 (texte intégral).</t>
         </is>
